--- a/DATA_goal/Junction_Flooding_395.xlsx
+++ b/DATA_goal/Junction_Flooding_395.xlsx
@@ -446,10 +446,10 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
@@ -462,18 +462,18 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -759,103 +759,103 @@
         <v>44782.09722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.37</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.1</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.47</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.43</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.85</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.83</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.5</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="L3" s="4" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>60.65</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.62</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.83</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.48</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.59</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.10416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.45</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.7</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.9</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.11</v>
+        <v>21.13</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.9</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.16</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.31</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.35</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.8</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.51</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>83.89</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.33</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.18</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.73</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.52</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.82</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.95</v>
+        <v>19.51</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.36</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.11111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.67</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.35</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.66</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.65</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.41</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>3.83</v>
+        <v>38.26</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.7</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.92</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.92</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_395.xlsx
+++ b/DATA_goal/Junction_Flooding_395.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.09027777778</v>
+        <v>45076.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>0.596</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.131</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>0.703</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>0.594</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.673</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>2.927</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>1.311</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>0.574</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>0.838</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>0.092</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>0.781</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.626</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>2.165</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>0.638</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>1.735</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>2.278</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>0.419</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>0.467</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>0.214</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>0.476</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>2.624</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>0.591</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.09722222222</v>
+        <v>45076.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.37</v>
+        <v>12.809</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.1</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.472</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>12.47</v>
+        <v>27.5</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>10.43</v>
+        <v>22.92</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.85</v>
+        <v>9.599</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>11.83</v>
+        <v>31.338</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.5</v>
+        <v>16.196</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.03</v>
+        <v>7.646</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.86</v>
+        <v>10.506</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.18</v>
+        <v>11.317</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.4</v>
+        <v>11.617</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.12</v>
+        <v>3.215</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.18</v>
+        <v>10.302</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.15</v>
+        <v>13.948</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.48</v>
+        <v>7.985</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.21</v>
+        <v>1.254</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.53</v>
+        <v>0.503</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>60.65</v>
+        <v>146.646</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.55</v>
+        <v>27.566</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.83</v>
+        <v>9.500999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.98</v>
+        <v>19.361</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.05</v>
+        <v>10.618</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.62</v>
+        <v>1.336</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.83</v>
+        <v>16.444</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.48</v>
+        <v>8.259</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.77</v>
+        <v>7.142</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.86</v>
+        <v>8.528</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.24</v>
+        <v>11.835</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.82</v>
+        <v>0.343</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>10.59</v>
+        <v>28.801</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.62</v>
+        <v>5.578</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.86</v>
+        <v>11.438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.10416666666</v>
+        <v>45076.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.45</v>
+        <v>15.248</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.62</v>
+        <v>11.464</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.534</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>16.7</v>
+        <v>32.966</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.9</v>
+        <v>27.4</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.6</v>
+        <v>11.675</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>21.13</v>
+        <v>45.502</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>18.898</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.16</v>
+        <v>8.795999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.31</v>
+        <v>12.481</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.36</v>
+        <v>13.416</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.2</v>
+        <v>13.964</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.35</v>
+        <v>3.846</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.8</v>
+        <v>12.16</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.51</v>
+        <v>16.847</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.86</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.917</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.478</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>83.89</v>
+        <v>175.514</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>16.29</v>
+        <v>33.253</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.33</v>
+        <v>11.226</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.18</v>
+        <v>22.998</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.73</v>
+        <v>12.276</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.8</v>
+        <v>1.579</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.52</v>
+        <v>22.665</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.82</v>
+        <v>9.803000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.6</v>
+        <v>8.542</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.17</v>
+        <v>10.143</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.61</v>
+        <v>14.08</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.223</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>19.51</v>
+        <v>41.981</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.36</v>
+        <v>6.512</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.71</v>
+        <v>13.689</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.11111111111</v>
+        <v>45076.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.67</v>
+        <v>12.39</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.76</v>
+        <v>9.31</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.43</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.35</v>
+        <v>26.82</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.99</v>
+        <v>22.29</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.69</v>
+        <v>9.51</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>13.66</v>
+        <v>39.31</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.45</v>
+        <v>15.32</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.12</v>
+        <v>7.13</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.16</v>
+        <v>10.14</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.8</v>
+        <v>10.9</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.65</v>
+        <v>11.36</v>
       </c>
       <c r="N5" s="4" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>141.27</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>27.09</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>1.28</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>38.26</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.4</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>6.44</v>
+        <v>19.11</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.4</v>
+        <v>7.97</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.36</v>
+        <v>6.95</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.63</v>
+        <v>8.26</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.92</v>
+        <v>11.45</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>12.92</v>
+        <v>36.16</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.74</v>
+        <v>5.29</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.11805555555</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.04</v>
+        <v>11.13</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_395.xlsx
+++ b/DATA_goal/Junction_Flooding_395.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45076.50694444445</v>
+        <v>44782.09027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.596</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5659999999999999</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.131</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.703</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.594</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.673</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.927</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.311</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.574</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.838</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.092</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.061</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.781</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.626</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.165</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.638</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.735</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.278</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.128</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.419</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.467</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.214</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.476</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.8090000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.624</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.591</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45076.51388888889</v>
+        <v>44782.09722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.809</v>
+        <v>5.369</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.635999999999999</v>
+        <v>4.101</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.472</v>
+        <v>0.028</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>27.5</v>
+        <v>12.47</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>22.92</v>
+        <v>10.429</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.599</v>
+        <v>3.846</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>31.338</v>
+        <v>11.831</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.196</v>
+        <v>6.502</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.646</v>
+        <v>3.03</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.506</v>
+        <v>4.863</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.317</v>
+        <v>6.18</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.617</v>
+        <v>5.396</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.215</v>
+        <v>2.118</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.302</v>
+        <v>4.183</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.948</v>
+        <v>6.151</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.985</v>
+        <v>3.483</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.254</v>
+        <v>0.211</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.503</v>
+        <v>0.531</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>146.646</v>
+        <v>60.646</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>27.566</v>
+        <v>11.548</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.500999999999999</v>
+        <v>3.829</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>19.361</v>
+        <v>7.978</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.618</v>
+        <v>4.053</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.336</v>
+        <v>0.624</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>16.444</v>
+        <v>5.829</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.259</v>
+        <v>3.478</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.142</v>
+        <v>3.766</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.528</v>
+        <v>3.861</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.835</v>
+        <v>6.242</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.343</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>28.801</v>
+        <v>10.586</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.578</v>
+        <v>2.617</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.438</v>
+        <v>4.855</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45076.52083333334</v>
+        <v>44782.10416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.248</v>
+        <v>7.449</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.464</v>
+        <v>5.618</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.534</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>32.966</v>
+        <v>16.701</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>27.4</v>
+        <v>13.897</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.675</v>
+        <v>5.602</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>45.502</v>
+        <v>21.134</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>18.898</v>
+        <v>9.025</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.795999999999999</v>
+        <v>4.159</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.481</v>
+        <v>6.314</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.416</v>
+        <v>7.361</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.964</v>
+        <v>7.201</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.846</v>
+        <v>2.353</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.16</v>
+        <v>5.796</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.847</v>
+        <v>8.51</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>4.855</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.917</v>
+        <v>0.132</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.478</v>
+        <v>0.463</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>175.514</v>
+        <v>83.89400000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>33.253</v>
+        <v>16.292</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.226</v>
+        <v>5.331</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>22.998</v>
+        <v>11.18</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.276</v>
+        <v>5.725</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.579</v>
+        <v>0.803</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>22.665</v>
+        <v>10.517</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.803000000000001</v>
+        <v>4.818</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.542</v>
+        <v>4.6</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.143</v>
+        <v>5.165</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.08</v>
+        <v>7.61</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.223</v>
+        <v>0.439</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>41.981</v>
+        <v>19.506</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.512</v>
+        <v>3.361</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.689</v>
+        <v>6.712</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45076.52777777778</v>
+        <v>44782.11111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.39</v>
+        <v>3.671</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.31</v>
+        <v>2.764</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.43</v>
+        <v>0.011</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>26.82</v>
+        <v>8.35</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.29</v>
+        <v>6.986</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.51</v>
+        <v>2.694</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>39.31</v>
+        <v>13.657</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.32</v>
+        <v>4.455</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.13</v>
+        <v>2.115</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.14</v>
+        <v>3.158</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.9</v>
+        <v>3.803</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.36</v>
+        <v>3.647</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.13</v>
+        <v>1.283</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>2.843</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.71</v>
+        <v>4.305</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.83</v>
+        <v>2.414</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.288</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>141.27</v>
+        <v>38.257</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>27.09</v>
+        <v>8.202</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>2.611</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.71</v>
+        <v>5.696</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.94</v>
+        <v>2.835</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.28</v>
+        <v>0.402</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.11</v>
+        <v>6.443</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.97</v>
+        <v>2.404</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.95</v>
+        <v>2.356</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.26</v>
+        <v>2.627</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.45</v>
+        <v>3.919</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.292</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>36.16</v>
+        <v>12.917</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.29</v>
+        <v>1.737</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.13</v>
+        <v>3.302</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.11805555555</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2.04</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_395.xlsx
+++ b/DATA_goal/Junction_Flooding_395.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.09027777778</v>
+        <v>45076.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>0.596</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.131</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>0.703</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>0.594</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.673</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>2.927</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>1.311</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>0.574</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>0.838</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>0.092</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>0.781</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.626</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>2.165</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>0.638</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>1.735</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>2.278</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>0.419</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>0.467</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>0.214</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>0.476</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>2.624</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>0.591</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.09722222222</v>
+        <v>45076.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.369</v>
+        <v>12.809</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.101</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.028</v>
+        <v>0.472</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>12.47</v>
+        <v>27.5</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>10.429</v>
+        <v>22.92</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.846</v>
+        <v>9.599</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>11.831</v>
+        <v>31.338</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.502</v>
+        <v>16.196</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.03</v>
+        <v>7.646</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.863</v>
+        <v>10.506</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.18</v>
+        <v>11.317</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.396</v>
+        <v>11.617</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.118</v>
+        <v>3.215</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.183</v>
+        <v>10.302</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.151</v>
+        <v>13.948</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.483</v>
+        <v>7.985</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.211</v>
+        <v>1.254</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.531</v>
+        <v>0.503</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>60.646</v>
+        <v>146.646</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.548</v>
+        <v>27.566</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.829</v>
+        <v>9.500999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.978</v>
+        <v>19.361</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.053</v>
+        <v>10.618</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.624</v>
+        <v>1.336</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.829</v>
+        <v>16.444</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.478</v>
+        <v>8.259</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.766</v>
+        <v>7.142</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.861</v>
+        <v>8.528</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.242</v>
+        <v>11.835</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.343</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>10.586</v>
+        <v>28.801</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.617</v>
+        <v>5.578</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.855</v>
+        <v>11.438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.10416666666</v>
+        <v>45076.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.449</v>
+        <v>15.248</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.618</v>
+        <v>11.464</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.534</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>16.701</v>
+        <v>32.966</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.897</v>
+        <v>27.4</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.602</v>
+        <v>11.675</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>21.134</v>
+        <v>45.502</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.025</v>
+        <v>18.898</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.159</v>
+        <v>8.795999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.314</v>
+        <v>12.481</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.361</v>
+        <v>13.416</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.201</v>
+        <v>13.964</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.353</v>
+        <v>3.846</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.796</v>
+        <v>12.16</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.51</v>
+        <v>16.847</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.855</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.132</v>
+        <v>0.917</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.463</v>
+        <v>0.478</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>83.89400000000001</v>
+        <v>175.514</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>16.292</v>
+        <v>33.253</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.331</v>
+        <v>11.226</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.18</v>
+        <v>22.998</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.725</v>
+        <v>12.276</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.803</v>
+        <v>1.579</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.517</v>
+        <v>22.665</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.818</v>
+        <v>9.803000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.6</v>
+        <v>8.542</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.165</v>
+        <v>10.143</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.61</v>
+        <v>14.08</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.439</v>
+        <v>0.223</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>19.506</v>
+        <v>41.981</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.361</v>
+        <v>6.512</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.712</v>
+        <v>13.689</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.11111111111</v>
+        <v>45076.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.671</v>
+        <v>12.39</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.764</v>
+        <v>9.31</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.011</v>
+        <v>0.43</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.35</v>
+        <v>26.82</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.986</v>
+        <v>22.29</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.694</v>
+        <v>9.51</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>13.657</v>
+        <v>39.31</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.455</v>
+        <v>15.32</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.115</v>
+        <v>7.13</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.158</v>
+        <v>10.14</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.803</v>
+        <v>10.9</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.647</v>
+        <v>11.36</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.283</v>
+        <v>3.13</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.843</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.305</v>
+        <v>13.71</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.414</v>
+        <v>7.83</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.288</v>
+        <v>0.36</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.257</v>
+        <v>141.27</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.202</v>
+        <v>27.09</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.611</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.696</v>
+        <v>18.71</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.835</v>
+        <v>9.94</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.402</v>
+        <v>1.28</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.443</v>
+        <v>19.11</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.404</v>
+        <v>7.97</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.356</v>
+        <v>6.95</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.627</v>
+        <v>8.26</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.919</v>
+        <v>11.45</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.292</v>
+        <v>0.17</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>12.917</v>
+        <v>36.16</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.737</v>
+        <v>5.29</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.302</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.11805555555</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.04</v>
+        <v>11.13</v>
       </c>
     </row>
   </sheetData>
